--- a/编码进度表—樊志强.xlsx
+++ b/编码进度表—樊志强.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\项目立项文档--樊志强\4、编码&amp;测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hgkj_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008942A-394B-4843-8EED-0F6125AB71F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386B0BEC-B6C4-4EBB-A75F-18C6A0501EBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="828" windowWidth="21924" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="42">
   <si>
     <t>整体模块</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>进度控制表-工资管理系统的设计与实现</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.6.27</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工查看工资和查询员工 员工导出自己的工资表</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -876,6 +888,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -895,7 +975,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1218,24 +1298,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
@@ -1247,7 +1327,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1373,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1311,7 +1391,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -1329,7 +1409,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -1347,7 +1427,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -1365,7 +1445,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1385,7 +1465,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -1403,7 +1483,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1423,7 +1503,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -1441,7 +1521,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
         <v>19</v>
@@ -1459,7 +1539,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="16" t="s">
         <v>20</v>
@@ -1477,7 +1557,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="16" t="s">
         <v>21</v>
@@ -1495,7 +1575,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
         <v>22</v>
@@ -1513,7 +1593,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1613,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
@@ -1572,20 +1652,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
@@ -1597,7 +1677,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -1643,7 +1723,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1661,7 +1741,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -1679,7 +1759,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -1697,7 +1777,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -1715,7 +1795,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1735,7 +1815,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -1753,7 +1833,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1773,7 +1853,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -1791,7 +1871,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
         <v>19</v>
@@ -1809,7 +1889,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="16" t="s">
         <v>20</v>
@@ -1827,7 +1907,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="16" t="s">
         <v>21</v>
@@ -1845,7 +1925,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
         <v>22</v>
@@ -1863,7 +1943,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -1883,7 +1963,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
@@ -1916,24 +1996,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0384D6-2B24-439D-BB84-035F7C45464C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
@@ -1945,7 +2025,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +2051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -1991,7 +2071,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -2009,7 +2089,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -2027,7 +2107,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -2045,7 +2125,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -2063,7 +2143,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -2083,7 +2163,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -2101,7 +2181,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -2111,17 +2191,21 @@
       <c r="C10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -2139,7 +2223,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
         <v>19</v>
@@ -2157,7 +2241,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="16" t="s">
         <v>20</v>
@@ -2175,7 +2259,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="16" t="s">
         <v>21</v>
@@ -2193,7 +2277,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
         <v>22</v>
@@ -2211,7 +2295,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -2231,7 +2315,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
@@ -2257,6 +2341,7 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2268,20 +2353,20 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
@@ -2293,7 +2378,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -2339,7 +2424,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -2357,7 +2442,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -2375,7 +2460,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -2393,7 +2478,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -2411,7 +2496,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -2431,7 +2516,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -2449,7 +2534,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -2469,7 +2554,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -2487,7 +2572,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
         <v>19</v>
@@ -2505,7 +2590,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="16" t="s">
         <v>20</v>
@@ -2523,7 +2608,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="16" t="s">
         <v>21</v>
@@ -2541,7 +2626,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
         <v>22</v>
@@ -2559,7 +2644,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -2579,7 +2664,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
@@ -2616,20 +2701,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
@@ -2641,7 +2726,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -2687,7 +2772,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -2705,7 +2790,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -2723,7 +2808,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -2741,7 +2826,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -2759,7 +2844,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -2779,7 +2864,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -2797,7 +2882,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -2817,7 +2902,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -2835,7 +2920,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
         <v>19</v>
@@ -2853,7 +2938,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="16" t="s">
         <v>20</v>
@@ -2871,7 +2956,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="16" t="s">
         <v>21</v>
@@ -2889,7 +2974,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
         <v>22</v>
@@ -2907,7 +2992,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -2927,7 +3012,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
@@ -2964,20 +3049,20 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
@@ -2989,7 +3074,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -3035,7 +3120,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3053,7 +3138,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -3071,7 +3156,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -3089,7 +3174,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -3107,7 +3192,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -3127,7 +3212,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -3145,7 +3230,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3165,7 +3250,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -3183,7 +3268,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
         <v>19</v>
@@ -3201,7 +3286,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="16" t="s">
         <v>20</v>
@@ -3219,7 +3304,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="16" t="s">
         <v>21</v>
@@ -3237,7 +3322,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
         <v>22</v>
@@ -3255,7 +3340,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -3275,7 +3360,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
@@ -3312,20 +3397,20 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
@@ -3337,7 +3422,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3363,7 +3448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -3383,7 +3468,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3401,7 +3486,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -3419,7 +3504,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -3437,7 +3522,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -3455,7 +3540,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -3475,7 +3560,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -3493,7 +3578,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3513,7 +3598,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -3531,7 +3616,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
         <v>19</v>
@@ -3549,7 +3634,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="16" t="s">
         <v>20</v>
@@ -3567,7 +3652,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="16" t="s">
         <v>21</v>
@@ -3585,7 +3670,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
         <v>22</v>
@@ -3603,7 +3688,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -3623,7 +3708,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>

--- a/编码进度表—樊志强.xlsx
+++ b/编码进度表—樊志强.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hgkj_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386B0BEC-B6C4-4EBB-A75F-18C6A0501EBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC08873C-4E87-4799-A73C-D24082085A31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,11 +216,11 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>2019.6.27</t>
+    <t>员工查看工资和查询员工 员工导出自己的工资表</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>员工查看工资和查询员工 员工导出自己的工资表</t>
+    <t>2019.6.24</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1996,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0384D6-2B24-439D-BB84-035F7C45464C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2192,7 +2192,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23">
@@ -2202,7 +2202,7 @@
         <v>39</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">

--- a/编码进度表—樊志强.xlsx
+++ b/编码进度表—樊志强.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hgkj_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC08873C-4E87-4799-A73C-D24082085A31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F093EE4E-FFAB-484A-B315-B06FFFDE9137}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="60" windowWidth="18480" windowHeight="10860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊志强" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="43">
   <si>
     <t>整体模块</t>
   </si>
@@ -221,6 +221,10 @@
   </si>
   <si>
     <t>2019.6.24</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.6.26</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1997,7 +2001,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2153,13 +2157,15 @@
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="H8" s="13"/>
     </row>
